--- a/OrangeHRM Login Page.xlsx
+++ b/OrangeHRM Login Page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B529BC-1AEB-489C-9558-F606E7E845C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD479A37-2888-41FD-AB03-F70BDEA2B84A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -55,6 +55,42 @@
   </si>
   <si>
     <t>TEST CASES ON LOGIN PAGE OF ORANGE HRM</t>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>Verify user is able to login with valid username and valid password.</t>
+  </si>
+  <si>
+    <t>User successfully logins and page redirects to dashboard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open login page </t>
+  </si>
+  <si>
+    <t>Username=Admin Password=admin123</t>
   </si>
 </sst>
 </file>
@@ -105,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,6 +158,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,14 +557,102 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A21:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OrangeHRM Login Page.xlsx
+++ b/OrangeHRM Login Page.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD479A37-2888-41FD-AB03-F70BDEA2B84A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE62BFE9-3FC9-4701-8A9E-D1CEBD0006E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Test Case Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Test Case</t>
   </si>
@@ -45,15 +42,9 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <t>Process/Feature</t>
-  </si>
-  <si>
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Login Screen</t>
-  </si>
-  <si>
     <t>TEST CASES ON LOGIN PAGE OF ORANGE HRM</t>
   </si>
   <si>
@@ -87,10 +78,25 @@
     <t>User successfully logins and page redirects to dashboard.</t>
   </si>
   <si>
-    <t xml:space="preserve">Open login page </t>
-  </si>
-  <si>
     <t>Username=Admin Password=admin123</t>
+  </si>
+  <si>
+    <t>Login Screen Functionality</t>
+  </si>
+  <si>
+    <t>Pre-Requisite</t>
+  </si>
+  <si>
+    <t>Open OrageHrm app in any browser.</t>
+  </si>
+  <si>
+    <t>Open login page. Enter username. Enter Paaword. Click login button.</t>
+  </si>
+  <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>Feature</t>
   </si>
 </sst>
 </file>
@@ -141,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,10 +162,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,38 +463,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="3"/>
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -485,18 +506,19 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -508,9 +530,10 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="11"/>
       <c r="C3" s="5"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -530,128 +553,135 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V3" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="C21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="8"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="8"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="A21:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OrangeHRM Login Page.xlsx
+++ b/OrangeHRM Login Page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE62BFE9-3FC9-4701-8A9E-D1CEBD0006E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925A4909-36CD-4E25-9BFB-A58A56290C7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Test Case</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Verify user is able to login with valid username and valid password.</t>
   </si>
   <si>
-    <t>User successfully logins and page redirects to dashboard.</t>
-  </si>
-  <si>
     <t>Username=Admin Password=admin123</t>
   </si>
   <si>
@@ -90,13 +87,74 @@
     <t>Open OrageHrm app in any browser.</t>
   </si>
   <si>
-    <t>Open login page. Enter username. Enter Paaword. Click login button.</t>
-  </si>
-  <si>
     <t>Test Case Id</t>
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>User logins and redirects to dashboard.</t>
+  </si>
+  <si>
+    <t>Username=Admin Password=admin</t>
+  </si>
+  <si>
+    <t>As expected.</t>
+  </si>
+  <si>
+    <t>Verify user is not able to login with valid username and invalid password.</t>
+  </si>
+  <si>
+    <t>Verify user is not able to login with invalid username and valid password.</t>
+  </si>
+  <si>
+    <t>Username=Admi Password=admin123</t>
+  </si>
+  <si>
+    <t>User is not able to login and error message is displayed, "Invalid credentials".</t>
+  </si>
+  <si>
+    <t>Verify user is not able to login with invalid username and invalid password.</t>
+  </si>
+  <si>
+    <t>Username=Admi Password=adin567</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Valid username.
+Enter Invalid Password.
+Click login button.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Valid username.
+Enter Valid Password.
+Click login button.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Invalid username.
+Enter Valid Password.
+Click login button.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Invalid username.
+Enter Invalid Password.
+Click login button.</t>
+  </si>
+  <si>
+    <t>Verify that placeholders are present or not in username and password field.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Check "Username" and "Password" placeholder are present in their respective fields.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>User is able to see the placeholders in the input fields.</t>
   </si>
 </sst>
 </file>
@@ -147,22 +205,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -171,17 +226,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,226 +509,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="11"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6" t="s">
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="6" t="s">
+      <c r="C10" s="4">
+        <v>15.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="6" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="A5:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OrangeHRM Login Page.xlsx
+++ b/OrangeHRM Login Page.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925A4909-36CD-4E25-9BFB-A58A56290C7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5ABD26-5797-4DE7-B57F-DFBFFCF9AEE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>Test Case</t>
   </si>
@@ -155,6 +155,148 @@
   </si>
   <si>
     <t>User is able to see the placeholders in the input fields.</t>
+  </si>
+  <si>
+    <t>Verify all buttons and links are clickable and working.</t>
+  </si>
+  <si>
+    <t>User should be redirected to the desired pages.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Click on every button and link to check user is redirected or not.</t>
+  </si>
+  <si>
+    <t>Verify that user is able to input username and password.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter username.
+Enter Password.</t>
+  </si>
+  <si>
+    <t>Username= qwerty
+Password=qwerty</t>
+  </si>
+  <si>
+    <t>User should be able to write username and password.</t>
+  </si>
+  <si>
+    <t>Verify that password is masked/encrypted.</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Password.</t>
+  </si>
+  <si>
+    <t>Password=qwerty</t>
+  </si>
+  <si>
+    <t>Password should not be visible or encrypted.</t>
+  </si>
+  <si>
+    <t>Verify user should not be able to login with blank fields.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Username and Password should be blank.</t>
+  </si>
+  <si>
+    <t>Username=
+Password=</t>
+  </si>
+  <si>
+    <t>User must not be able to login with empty fields.</t>
+  </si>
+  <si>
+    <t>Error message is displayed or not when trying to login with blank fields.</t>
+  </si>
+  <si>
+    <t>Error message is displayed for empty fields.</t>
+  </si>
+  <si>
+    <t>Verify user is able to login with enter button after entering credentials.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter username.
+Enter Password.
+Press Enter Button on Keyboard.</t>
+  </si>
+  <si>
+    <t>Verify user is able to enter username and password with copy paste and login.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter username with copy paste.
+Enter Password with copy paste.
+Click on login.</t>
+  </si>
+  <si>
+    <t>Username=Admin Password=admin124</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter username.
+Passord should be blank.
+Click on login.</t>
+  </si>
+  <si>
+    <t>Username=Admin Password=</t>
+  </si>
+  <si>
+    <t>Verify user is not able to login when password is missing and username is valid.</t>
+  </si>
+  <si>
+    <t>Verify user is not able to login when username is missing and password is valid.</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>Verify user is not able to login when username is missing and password is invalid.</t>
+  </si>
+  <si>
+    <t>Verify user is not able to login when password is missing and username is invalid.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Password.
+Username should be blank.
+Click on login.</t>
+  </si>
+  <si>
+    <t>Username= Password=admin123</t>
+  </si>
+  <si>
+    <t>Username= Password=ASsss23</t>
+  </si>
+  <si>
+    <t>Username=Asan Password=</t>
   </si>
 </sst>
 </file>
@@ -220,13 +362,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,18 +672,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -556,16 +698,16 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -586,30 +728,33 @@
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="J4" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -633,9 +778,13 @@
       <c r="I5" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="J5" t="str">
+        <f>IF(I5="As expected.", "Passed", "Failed")</f>
+        <v>Passed</v>
+      </c>
     </row>
     <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -657,9 +806,13 @@
       <c r="I6" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="J6" t="str">
+        <f>IF(I6="As expected.", "Passed", "Failed")</f>
+        <v>Passed</v>
+      </c>
     </row>
     <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -681,9 +834,13 @@
       <c r="I7" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7:J20" si="0">IF(I7="As expected.", "Passed", "Failed")</f>
+        <v>Passed</v>
+      </c>
     </row>
     <row r="8" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -705,9 +862,13 @@
       <c r="I8" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
     </row>
     <row r="9" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -729,57 +890,321 @@
       <c r="I9" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
-        <v>15.39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/OrangeHRM Login Page.xlsx
+++ b/OrangeHRM Login Page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5ABD26-5797-4DE7-B57F-DFBFFCF9AEE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DFA9FE-F067-494A-960F-C5AFBC033D99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t>Test Case</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>Username=Asan Password=</t>
+  </si>
+  <si>
+    <t>Change Password Functionality</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>TC-019</t>
   </si>
 </sst>
 </file>
@@ -651,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,10 +1218,76 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="A5:A22"/>
+    <mergeCell ref="A23:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OrangeHRM Login Page.xlsx
+++ b/OrangeHRM Login Page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DFA9FE-F067-494A-960F-C5AFBC033D99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AA0A51-B981-4D17-B713-53E6B750564F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>Test Case</t>
   </si>
@@ -309,6 +309,84 @@
   </si>
   <si>
     <t>TC-019</t>
+  </si>
+  <si>
+    <t>Verify that user is able to land on change password page when clicking on change password button from dropdown menu on dashboard page.</t>
+  </si>
+  <si>
+    <t>1. Open OrageHrm app in any browser.
+2. Login to the application.</t>
+  </si>
+  <si>
+    <t>1. Click on profile picture from dashboard to open dropdown menu.
+2. From dropdown menu click on Change Password link.</t>
+  </si>
+  <si>
+    <t>User should be redirected to Update Password page.</t>
+  </si>
+  <si>
+    <t>Verify user is able to change password by entering all required fields correctly.</t>
+  </si>
+  <si>
+    <t>1. Open OrageHrm app in any browser.
+2. Login to the application.
+3. User must be on update password page.</t>
+  </si>
+  <si>
+    <t>Current Password =admin123
+Password=admin12345
+Confirm Password =admin12345</t>
+  </si>
+  <si>
+    <t>Enter Current Password.
+Enter Password.
+Enter Confirm Password.
+Click Save button.</t>
+  </si>
+  <si>
+    <t>Succes message should be displayed.
+User stays login.</t>
+  </si>
+  <si>
+    <t>Verify user is able to login with new password.</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Valid username.
+Enter new Password.
+Click login button.</t>
+  </si>
+  <si>
+    <t>Username=Admin
+Password=admin12345</t>
+  </si>
+  <si>
+    <t>Verify user is not able to login with old password.</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>Open login page.
+Enter Valid username.
+Enter old Password.
+Click login button.</t>
+  </si>
+  <si>
+    <t>Username=Admin
+Password=admin123</t>
+  </si>
+  <si>
+    <t>User is not able to login with new password.</t>
+  </si>
+  <si>
+    <t>User is still able to login with old password.</t>
+  </si>
+  <si>
+    <t>User should not be able to login and error message is displayed, "Invalid credentials".</t>
   </si>
 </sst>
 </file>
@@ -665,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,9 +753,9 @@
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19" style="4" customWidth="1"/>
     <col min="6" max="6" width="28.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="17" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
@@ -847,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J20" si="0">IF(I7="As expected.", "Passed", "Failed")</f>
+        <f t="shared" ref="J7:J26" si="0">IF(I7="As expected.", "Passed", "Failed")</f>
         <v>Passed</v>
       </c>
     </row>
@@ -1218,31 +1296,125 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
+      <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
+      <c r="B27" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>

--- a/OrangeHRM Login Page.xlsx
+++ b/OrangeHRM Login Page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AA0A51-B981-4D17-B713-53E6B750564F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D923C-F7BF-480C-868D-BF91D448BC66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
   <si>
     <t>Test Case</t>
   </si>
@@ -344,10 +344,6 @@
 Click Save button.</t>
   </si>
   <si>
-    <t>Succes message should be displayed.
-User stays login.</t>
-  </si>
-  <si>
     <t>Verify user is able to login with new password.</t>
   </si>
   <si>
@@ -387,6 +383,71 @@
   </si>
   <si>
     <t>User should not be able to login and error message is displayed, "Invalid credentials".</t>
+  </si>
+  <si>
+    <t>1. Succes message should be displayed.
+2. User stays login.</t>
+  </si>
+  <si>
+    <t>Verify user should not be able to change password by not entering any data in required fields.</t>
+  </si>
+  <si>
+    <t>TC-022</t>
+  </si>
+  <si>
+    <t>TC-023</t>
+  </si>
+  <si>
+    <t>Verify user should not be able to change password by only entering password and confirm password.</t>
+  </si>
+  <si>
+    <t>Verify user should not be able to change password by entering invalid current password and valid password and valid confirm password.</t>
+  </si>
+  <si>
+    <t>Verify user should not be able to change password by entering invalid current password and valid password and invalid confirm password.</t>
+  </si>
+  <si>
+    <t>Verify user should not be able to change password by entering valid current password and valid password and invalid confirm password.</t>
+  </si>
+  <si>
+    <t>TC-024</t>
+  </si>
+  <si>
+    <t>TC-025</t>
+  </si>
+  <si>
+    <t>Click Save button on update password page without entering any data.</t>
+  </si>
+  <si>
+    <t>Error message should be displayed, 'Enter required fields'.</t>
+  </si>
+  <si>
+    <t>Enter Password.
+Enter Confirm Password.
+Click Save button.</t>
+  </si>
+  <si>
+    <t>Password=admin12345
+Confirm Password =admin12345</t>
+  </si>
+  <si>
+    <t>Error message should be displayed, 'Enter required field for current password'.</t>
+  </si>
+  <si>
+    <t>Current Password =admin890
+Password=admin12345
+Confirm Password =admin12345</t>
+  </si>
+  <si>
+    <t>Error message should be displayed, 'Current Password is wrong'.</t>
+  </si>
+  <si>
+    <t>Current Password =admin890
+Password=admin12345
+Confirm Password =admin456</t>
+  </si>
+  <si>
+    <t>Error message should be displayed, 'Password do not match'.</t>
   </si>
 </sst>
 </file>
@@ -743,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +986,7 @@
         <v>24</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J26" si="0">IF(I7="As expected.", "Passed", "Failed")</f>
+        <f t="shared" ref="J7:J31" si="0">IF(I7="As expected.", "Passed", "Failed")</f>
         <v>Passed</v>
       </c>
     </row>
@@ -1344,7 +1405,7 @@
         <v>90</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>24</v>
@@ -1360,22 +1421,22 @@
         <v>83</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -1385,48 +1446,170 @@
     <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
         <v>Failed</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
+      <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>

--- a/OrangeHRM Login Page.xlsx
+++ b/OrangeHRM Login Page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D923C-F7BF-480C-868D-BF91D448BC66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85667B4E-3369-4757-9090-3FAD3FE56769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t>Test Case</t>
   </si>
@@ -328,11 +328,6 @@
     <t>Verify user is able to change password by entering all required fields correctly.</t>
   </si>
   <si>
-    <t>1. Open OrageHrm app in any browser.
-2. Login to the application.
-3. User must be on update password page.</t>
-  </si>
-  <si>
     <t>Current Password =admin123
 Password=admin12345
 Confirm Password =admin12345</t>
@@ -448,6 +443,17 @@
   </si>
   <si>
     <t>Error message should be displayed, 'Password do not match'.</t>
+  </si>
+  <si>
+    <t>TC-026</t>
+  </si>
+  <si>
+    <t>Verify user should not be able to change password by entering valid current password and invalid password and invalid confirm password.</t>
+  </si>
+  <si>
+    <t>1. Open OrageHrm app in any browser.
+2. Login to the application.
+3. Go to update password page.</t>
   </si>
 </sst>
 </file>
@@ -478,12 +484,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -498,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -522,6 +534,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,11 +1370,25 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1387,7 +1420,7 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>82</v>
@@ -1396,16 +1429,16 @@
         <v>88</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>24</v>
@@ -1421,22 +1454,22 @@
         <v>83</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -1446,50 +1479,50 @@
     <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
         <v>Failed</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>24</v>
@@ -1499,26 +1532,26 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="I28" s="4" t="s">
         <v>24</v>
       </c>
@@ -1527,26 +1560,26 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="I29" s="4" t="s">
         <v>24</v>
       </c>
@@ -1555,26 +1588,26 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="I30" s="4" t="s">
         <v>24</v>
       </c>
@@ -1583,36 +1616,45 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="H31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="C32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>

--- a/OrangeHRM Login Page.xlsx
+++ b/OrangeHRM Login Page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85667B4E-3369-4757-9090-3FAD3FE56769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DC4360-3A98-44B0-AA58-43FC46382AE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="144">
   <si>
     <t>Test Case</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Password=qwerty</t>
   </si>
   <si>
-    <t>Password should not be visible or encrypted.</t>
-  </si>
-  <si>
     <t>Verify user should not be able to login with blank fields.</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t>TC-025</t>
   </si>
   <si>
-    <t>Click Save button on update password page without entering any data.</t>
-  </si>
-  <si>
     <t>Error message should be displayed, 'Enter required fields'.</t>
   </si>
   <si>
@@ -448,12 +442,92 @@
     <t>TC-026</t>
   </si>
   <si>
-    <t>Verify user should not be able to change password by entering valid current password and invalid password and invalid confirm password.</t>
-  </si>
-  <si>
     <t>1. Open OrageHrm app in any browser.
 2. Login to the application.
 3. Go to update password page.</t>
+  </si>
+  <si>
+    <t>Verify user should not be able to change password by entering valid current password but mismatched password and confirm password.</t>
+  </si>
+  <si>
+    <t>Current Password =admin123
+Password=admin345
+Confirm Password =admin12346</t>
+  </si>
+  <si>
+    <t>TC-027</t>
+  </si>
+  <si>
+    <t>TC-028</t>
+  </si>
+  <si>
+    <t>Verify user should not be able to change password if it doesn't meet the password setting specification.</t>
+  </si>
+  <si>
+    <t>Current Password =admin123
+Password=admin#$
+Confirm Password =admin#$</t>
+  </si>
+  <si>
+    <t>Error message should be displayed, 'Set password according to mentioned specification'.</t>
+  </si>
+  <si>
+    <t>Verify password is shown in masked/encrypted form.</t>
+  </si>
+  <si>
+    <t>Enter Current Password.
+Enter Password.
+Enter Confirm Password.</t>
+  </si>
+  <si>
+    <t>TC-029</t>
+  </si>
+  <si>
+    <t>TC-030</t>
+  </si>
+  <si>
+    <t>Password should not be visible in text form or should be encrypted/masked.</t>
+  </si>
+  <si>
+    <t>Password should not be visible in text or should be encrypted.</t>
+  </si>
+  <si>
+    <t>Verify user should not be able to enter password more than max character limits.</t>
+  </si>
+  <si>
+    <t>Verify password strength message should be displayed when user enters the password.</t>
+  </si>
+  <si>
+    <t>Click Save button without entering any data.</t>
+  </si>
+  <si>
+    <t>Current Password =admin123
+Password=admin#$
+Confirm Password =admin#$
+Max limit=64</t>
+  </si>
+  <si>
+    <t>Current Password =admin123
+Password=admin1235$
+Confirm Password =admin1235$</t>
+  </si>
+  <si>
+    <t>TC-031</t>
+  </si>
+  <si>
+    <t>TC-032</t>
+  </si>
+  <si>
+    <t>TC-033</t>
+  </si>
+  <si>
+    <t>Verify password should not be changed when user clicks cancel button after entering all required fields.</t>
+  </si>
+  <si>
+    <t>Enter Current Password.
+Enter Password.
+Enter Confirm Password.
+Click Cancel button.</t>
   </si>
 </sst>
 </file>
@@ -528,12 +602,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,12 +609,149 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -823,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,28 +1037,28 @@
     <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="17" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -868,16 +1073,16 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -920,11 +1125,11 @@
         <v>5</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -954,7 +1159,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -982,7 +1187,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1005,12 +1210,12 @@
         <v>24</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J31" si="0">IF(I7="As expected.", "Passed", "Failed")</f>
+        <f t="shared" ref="J7:J37" si="0">IF(I7="As expected.", "Passed", "Failed")</f>
         <v>Passed</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1243,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1271,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1299,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1119,7 +1324,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1136,7 +1341,7 @@
         <v>52</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>24</v>
@@ -1147,25 +1352,25 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1175,24 +1380,24 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>24</v>
@@ -1203,18 +1408,18 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>16</v>
@@ -1231,21 +1436,21 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>22</v>
@@ -1258,22 +1463,22 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>28</v>
@@ -1286,22 +1491,22 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>28</v>
@@ -1314,22 +1519,22 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>28</v>
@@ -1342,22 +1547,22 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>28</v>
@@ -1370,315 +1575,456 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="21" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="2" t="s">
+      <c r="E24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
         <v>Failed</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
         <v>Failed</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="2" t="s">
+      <c r="H28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="C33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="G33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>Passed</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="F34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1686,6 +2032,14 @@
     <mergeCell ref="A5:A22"/>
     <mergeCell ref="A23:A40"/>
   </mergeCells>
+  <conditionalFormatting sqref="J5:J20 J23:J37">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>J5="Passed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>J5="Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/OrangeHRM Login Page.xlsx
+++ b/OrangeHRM Login Page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DC4360-3A98-44B0-AA58-43FC46382AE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8DD141-F0D6-4358-9832-1CBF05C967A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="149">
   <si>
     <t>Test Case</t>
   </si>
@@ -528,6 +528,21 @@
 Enter Password.
 Enter Confirm Password.
 Click Cancel button.</t>
+  </si>
+  <si>
+    <t>Should not exceed 64 characters.</t>
+  </si>
+  <si>
+    <t>User is able to enter more than 64 characters.</t>
+  </si>
+  <si>
+    <t>Following messages should be displayed when user is entering the password. "Weak,Weakest,Strong,Strongest".</t>
+  </si>
+  <si>
+    <t>Once clicked on cancel button password should be changed and user remains on the same page.</t>
+  </si>
+  <si>
+    <t>User is redirected to the dashboard page.</t>
   </si>
 </sst>
 </file>
@@ -619,7 +634,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -664,86 +679,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1028,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1426,7 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
         <v>66</v>
@@ -1519,7 +1454,7 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>71</v>
@@ -1607,7 +1542,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>79</v>
       </c>
@@ -1637,7 +1572,7 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="2" t="s">
         <v>81</v>
@@ -1749,7 +1684,7 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
         <v>103</v>
@@ -1777,7 +1712,7 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
         <v>104</v>
@@ -1805,7 +1740,7 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="2" t="s">
         <v>109</v>
@@ -1833,7 +1768,7 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="2" t="s">
         <v>110</v>
@@ -1861,7 +1796,7 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
         <v>119</v>
@@ -1889,7 +1824,7 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
         <v>123</v>
@@ -1917,7 +1852,7 @@
         <v>Passed</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
         <v>124</v>
@@ -1962,6 +1897,12 @@
       <c r="G35" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="H35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
         <v>Failed</v>
@@ -1984,9 +1925,15 @@
       <c r="G36" s="4" t="s">
         <v>138</v>
       </c>
+      <c r="H36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>Failed</v>
+        <v>Passed</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2005,6 +1952,12 @@
       </c>
       <c r="G37" s="4" t="s">
         <v>138</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
@@ -2033,10 +1986,10 @@
     <mergeCell ref="A23:A40"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:J20 J23:J37">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>J5="Passed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>J5="Failed"</formula>
     </cfRule>
   </conditionalFormatting>
